--- a/x_f/handicap_sp_low_1.5_matches.xlsx
+++ b/x_f/handicap_sp_low_1.5_matches.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="8110"/>
+    <workbookView windowWidth="28130" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="835">
   <si>
     <t>序号</t>
   </si>
@@ -2382,6 +2382,144 @@
   </si>
   <si>
     <t>长崎航海</t>
+  </si>
+  <si>
+    <t>周二021</t>
+  </si>
+  <si>
+    <t>03-27 03:45</t>
+  </si>
+  <si>
+    <t>[31]</t>
+  </si>
+  <si>
+    <t>03-29 18:00</t>
+  </si>
+  <si>
+    <t>京都</t>
+  </si>
+  <si>
+    <t>03-29 21:00</t>
+  </si>
+  <si>
+    <t>03-30 15:30</t>
+  </si>
+  <si>
+    <t>水原FC</t>
+  </si>
+  <si>
+    <t>金泉尚武</t>
+  </si>
+  <si>
+    <t>03-30 21:00</t>
+  </si>
+  <si>
+    <t>03-30 22:30</t>
+  </si>
+  <si>
+    <t>03-30 23:15</t>
+  </si>
+  <si>
+    <t>03-31 01:00</t>
+  </si>
+  <si>
+    <t>03-31 03:45</t>
+  </si>
+  <si>
+    <t>03-31 15:30</t>
+  </si>
+  <si>
+    <t>光州FC</t>
+  </si>
+  <si>
+    <t>周一005</t>
+  </si>
+  <si>
+    <t>04-01 21:00</t>
+  </si>
+  <si>
+    <t>04-03 02:30</t>
+  </si>
+  <si>
+    <t>04-03 02:45</t>
+  </si>
+  <si>
+    <t>伯恩利</t>
+  </si>
+  <si>
+    <t>葡萄牙杯</t>
+  </si>
+  <si>
+    <t>04-03 03:45</t>
+  </si>
+  <si>
+    <t>04-03 18:00</t>
+  </si>
+  <si>
+    <t>冈山绿雉</t>
+  </si>
+  <si>
+    <t>横滨FC</t>
+  </si>
+  <si>
+    <t>04-04 02:30</t>
+  </si>
+  <si>
+    <t>周三007</t>
+  </si>
+  <si>
+    <t>04-04 02:45</t>
+  </si>
+  <si>
+    <t>04-04 03:00</t>
+  </si>
+  <si>
+    <t>周三011</t>
+  </si>
+  <si>
+    <t>解放者杯</t>
+  </si>
+  <si>
+    <t>04-04 08:30</t>
+  </si>
+  <si>
+    <t>圣洛伦索</t>
+  </si>
+  <si>
+    <t>帕梅拉斯</t>
+  </si>
+  <si>
+    <t>04-05 02:00</t>
+  </si>
+  <si>
+    <t>04-05 08:00</t>
+  </si>
+  <si>
+    <t>铁路工场</t>
+  </si>
+  <si>
+    <t>圣保罗</t>
+  </si>
+  <si>
+    <t>04-06 13:00</t>
+  </si>
+  <si>
+    <t>札幌冈萨</t>
+  </si>
+  <si>
+    <t>04-06 16:45</t>
+  </si>
+  <si>
+    <t>04-06 19:30</t>
+  </si>
+  <si>
+    <t>伊普斯</t>
+  </si>
+  <si>
+    <t>04-06 22:00</t>
+  </si>
+  <si>
+    <t>04-06 22:30</t>
   </si>
 </sst>
 </file>
@@ -2390,8 +2528,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -2419,6 +2557,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2432,37 +2614,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2471,22 +2625,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2507,14 +2645,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2532,10 +2662,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2547,16 +2685,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2590,37 +2728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2632,31 +2746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2674,7 +2770,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2686,13 +2794,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2704,7 +2842,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2716,7 +2866,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2728,25 +2890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2758,19 +2902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2813,6 +2951,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2842,17 +3004,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2864,24 +3020,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2912,46 +3050,46 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2960,100 +3098,100 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3417,10 +3555,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N593"/>
+  <dimension ref="A1:N649"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
+      <selection activeCell="M641" sqref="M641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -23881,8 +24019,1937 @@
         <v>32</v>
       </c>
     </row>
+    <row r="594" spans="1:13">
+      <c r="A594" s="2">
+        <v>3896</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G594" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H594" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I594" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="J594" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K594" s="2">
+        <v>2.47</v>
+      </c>
+      <c r="L594" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="M594" s="2">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="595" spans="1:14">
+      <c r="A595" s="2">
+        <v>3897</v>
+      </c>
+      <c r="B595" s="3"/>
+      <c r="C595" s="3"/>
+      <c r="D595" s="3"/>
+      <c r="E595" s="3"/>
+      <c r="F595" s="3"/>
+      <c r="G595" s="3"/>
+      <c r="H595" s="3"/>
+      <c r="I595" s="3"/>
+      <c r="J595" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K595" s="2">
+        <v>6</v>
+      </c>
+      <c r="L595" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="M595" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="N595" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13">
+      <c r="A596" s="2">
+        <v>3906</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G596" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H596" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="I596" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J596" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K596" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="L596" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="M596" s="2">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="597" spans="1:14">
+      <c r="A597" s="2">
+        <v>3907</v>
+      </c>
+      <c r="B597" s="3"/>
+      <c r="C597" s="3"/>
+      <c r="D597" s="3"/>
+      <c r="E597" s="3"/>
+      <c r="F597" s="3"/>
+      <c r="G597" s="3"/>
+      <c r="H597" s="3"/>
+      <c r="I597" s="3"/>
+      <c r="J597" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K597" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="L597" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="M597" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="N597" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13">
+      <c r="A598" s="2">
+        <v>3908</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G598" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H598" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="I598" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J598" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K598" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="L598" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="M598" s="2">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="599" spans="1:14">
+      <c r="A599" s="2">
+        <v>3909</v>
+      </c>
+      <c r="B599" s="3"/>
+      <c r="C599" s="3"/>
+      <c r="D599" s="3"/>
+      <c r="E599" s="3"/>
+      <c r="F599" s="3"/>
+      <c r="G599" s="3"/>
+      <c r="H599" s="3"/>
+      <c r="I599" s="3"/>
+      <c r="J599" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K599" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L599" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="M599" s="2">
+        <v>4.85</v>
+      </c>
+      <c r="N599" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13">
+      <c r="A600" s="2">
+        <v>3922</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D600" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E600" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="G600" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H600" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="I600" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J600" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K600" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="L600" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="M600" s="4">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="601" spans="1:14">
+      <c r="A601" s="2">
+        <v>3923</v>
+      </c>
+      <c r="B601" s="3"/>
+      <c r="C601" s="3"/>
+      <c r="D601" s="3"/>
+      <c r="E601" s="3"/>
+      <c r="F601" s="3"/>
+      <c r="G601" s="3"/>
+      <c r="H601" s="3"/>
+      <c r="I601" s="3"/>
+      <c r="J601" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K601" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L601" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="M601" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="N601" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13">
+      <c r="A602" s="2">
+        <v>3934</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E602" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G602" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H602" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I602" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J602" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K602" s="2">
+        <v>2.3</v>
+      </c>
+      <c r="L602" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="M602" s="4">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="603" spans="1:14">
+      <c r="A603" s="2">
+        <v>3935</v>
+      </c>
+      <c r="B603" s="3"/>
+      <c r="C603" s="3"/>
+      <c r="D603" s="3"/>
+      <c r="E603" s="3"/>
+      <c r="F603" s="3"/>
+      <c r="G603" s="3"/>
+      <c r="H603" s="3"/>
+      <c r="I603" s="3"/>
+      <c r="J603" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K603" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L603" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="M603" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="N603" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13">
+      <c r="A604" s="2">
+        <v>3944</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="E604" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G604" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H604" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I604" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J604" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K604" s="2">
+        <v>2.53</v>
+      </c>
+      <c r="L604" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="M604" s="4">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="605" spans="1:14">
+      <c r="A605" s="2">
+        <v>3945</v>
+      </c>
+      <c r="B605" s="3"/>
+      <c r="C605" s="3"/>
+      <c r="D605" s="3"/>
+      <c r="E605" s="3"/>
+      <c r="F605" s="3"/>
+      <c r="G605" s="3"/>
+      <c r="H605" s="3"/>
+      <c r="I605" s="3"/>
+      <c r="J605" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K605" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="L605" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="M605" s="4">
+        <v>4.9</v>
+      </c>
+      <c r="N605" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13">
+      <c r="A606" s="2">
+        <v>3964</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="E606" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G606" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H606" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I606" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J606" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K606" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L606" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="M606" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:14">
+      <c r="A607" s="2">
+        <v>3965</v>
+      </c>
+      <c r="B607" s="3"/>
+      <c r="C607" s="3"/>
+      <c r="D607" s="3"/>
+      <c r="E607" s="3"/>
+      <c r="F607" s="3"/>
+      <c r="G607" s="3"/>
+      <c r="H607" s="3"/>
+      <c r="I607" s="3"/>
+      <c r="J607" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K607" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="L607" s="2">
+        <v>4.15</v>
+      </c>
+      <c r="M607" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="N607" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13">
+      <c r="A608" s="2">
+        <v>3968</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E608" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G608" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H608" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I608" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J608" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K608" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="L608" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="M608" s="2">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:14">
+      <c r="A609" s="2">
+        <v>3969</v>
+      </c>
+      <c r="B609" s="3"/>
+      <c r="C609" s="3"/>
+      <c r="D609" s="3"/>
+      <c r="E609" s="3"/>
+      <c r="F609" s="3"/>
+      <c r="G609" s="3"/>
+      <c r="H609" s="3"/>
+      <c r="I609" s="3"/>
+      <c r="J609" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K609" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="L609" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="M609" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="N609" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13">
+      <c r="A610" s="2">
+        <v>3976</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E610" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F610" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G610" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H610" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I610" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J610" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K610" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="L610" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="M610" s="4">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14">
+      <c r="A611" s="2">
+        <v>3977</v>
+      </c>
+      <c r="B611" s="3"/>
+      <c r="C611" s="3"/>
+      <c r="D611" s="3"/>
+      <c r="E611" s="3"/>
+      <c r="F611" s="3"/>
+      <c r="G611" s="3"/>
+      <c r="H611" s="3"/>
+      <c r="I611" s="3"/>
+      <c r="J611" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K611" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="L611" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="M611" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="N611" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13">
+      <c r="A612" s="2">
+        <v>3988</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D612" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E612" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="G612" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H612" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I612" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J612" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K612" s="2">
+        <v>2.28</v>
+      </c>
+      <c r="L612" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="M612" s="4">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="613" spans="1:14">
+      <c r="A613" s="2">
+        <v>3989</v>
+      </c>
+      <c r="B613" s="3"/>
+      <c r="C613" s="3"/>
+      <c r="D613" s="3"/>
+      <c r="E613" s="3"/>
+      <c r="F613" s="3"/>
+      <c r="G613" s="3"/>
+      <c r="H613" s="3"/>
+      <c r="I613" s="3"/>
+      <c r="J613" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K613" s="2">
+        <v>5.05</v>
+      </c>
+      <c r="L613" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="M613" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="N613" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13">
+      <c r="A614" s="2">
+        <v>4028</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E614" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G614" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H614" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I614" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J614" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K614" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="L614" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="M614" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="615" spans="1:14">
+      <c r="A615" s="2">
+        <v>4029</v>
+      </c>
+      <c r="B615" s="3"/>
+      <c r="C615" s="3"/>
+      <c r="D615" s="3"/>
+      <c r="E615" s="3"/>
+      <c r="F615" s="3"/>
+      <c r="G615" s="3"/>
+      <c r="H615" s="3"/>
+      <c r="I615" s="3"/>
+      <c r="J615" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K615" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="L615" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="M615" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="N615" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13">
+      <c r="A616" s="2">
+        <v>4040</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="E616" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F616" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G616" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H616" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I616" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J616" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K616" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="L616" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="M616" s="2">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="617" spans="1:14">
+      <c r="A617" s="2">
+        <v>4041</v>
+      </c>
+      <c r="B617" s="3"/>
+      <c r="C617" s="3"/>
+      <c r="D617" s="3"/>
+      <c r="E617" s="3"/>
+      <c r="F617" s="3"/>
+      <c r="G617" s="3"/>
+      <c r="H617" s="3"/>
+      <c r="I617" s="3"/>
+      <c r="J617" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K617" s="4">
+        <v>5.82</v>
+      </c>
+      <c r="L617" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="M617" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="N617" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13">
+      <c r="A618" s="2">
+        <v>4046</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E618" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G618" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H618" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I618" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J618" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K618" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="L618" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="M618" s="2">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="619" spans="1:14">
+      <c r="A619" s="2">
+        <v>4047</v>
+      </c>
+      <c r="B619" s="3"/>
+      <c r="C619" s="3"/>
+      <c r="D619" s="3"/>
+      <c r="E619" s="3"/>
+      <c r="F619" s="3"/>
+      <c r="G619" s="3"/>
+      <c r="H619" s="3"/>
+      <c r="I619" s="3"/>
+      <c r="J619" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K619" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="L619" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="M619" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="N619" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13">
+      <c r="A620" s="2">
+        <v>4052</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="E620" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G620" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H620" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I620" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J620" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K620" s="2">
+        <v>2.22</v>
+      </c>
+      <c r="L620" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="M620" s="2">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="621" spans="1:14">
+      <c r="A621" s="2">
+        <v>4053</v>
+      </c>
+      <c r="B621" s="3"/>
+      <c r="C621" s="3"/>
+      <c r="D621" s="3"/>
+      <c r="E621" s="3"/>
+      <c r="F621" s="3"/>
+      <c r="G621" s="3"/>
+      <c r="H621" s="3"/>
+      <c r="I621" s="3"/>
+      <c r="J621" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K621" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="L621" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="M621" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="N621" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13">
+      <c r="A622" s="2">
+        <v>4054</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="E622" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F622" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="G622" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H622" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="I622" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J622" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K622" s="2">
+        <v>2.47</v>
+      </c>
+      <c r="L622" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="M622" s="2">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="623" spans="1:14">
+      <c r="A623" s="2">
+        <v>4055</v>
+      </c>
+      <c r="B623" s="3"/>
+      <c r="C623" s="3"/>
+      <c r="D623" s="3"/>
+      <c r="E623" s="3"/>
+      <c r="F623" s="3"/>
+      <c r="G623" s="3"/>
+      <c r="H623" s="3"/>
+      <c r="I623" s="3"/>
+      <c r="J623" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K623" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="L623" s="2">
+        <v>4.15</v>
+      </c>
+      <c r="M623" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="N623" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13">
+      <c r="A624" s="2">
+        <v>4056</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="E624" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F624" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="G624" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H624" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="I624" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J624" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K624" s="2">
+        <v>2.46</v>
+      </c>
+      <c r="L624" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="M624" s="4">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="625" spans="1:14">
+      <c r="A625" s="2">
+        <v>4057</v>
+      </c>
+      <c r="B625" s="3"/>
+      <c r="C625" s="3"/>
+      <c r="D625" s="3"/>
+      <c r="E625" s="3"/>
+      <c r="F625" s="3"/>
+      <c r="G625" s="3"/>
+      <c r="H625" s="3"/>
+      <c r="I625" s="3"/>
+      <c r="J625" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K625" s="2">
+        <v>6.05</v>
+      </c>
+      <c r="L625" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="M625" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="N625" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13">
+      <c r="A626" s="2">
+        <v>4062</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D626" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E626" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F626" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G626" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H626" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I626" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J626" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K626" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="L626" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="M626" s="2">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="627" spans="1:14">
+      <c r="A627" s="2">
+        <v>4063</v>
+      </c>
+      <c r="B627" s="3"/>
+      <c r="C627" s="3"/>
+      <c r="D627" s="3"/>
+      <c r="E627" s="3"/>
+      <c r="F627" s="3"/>
+      <c r="G627" s="3"/>
+      <c r="H627" s="3"/>
+      <c r="I627" s="3"/>
+      <c r="J627" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K627" s="2">
+        <v>5</v>
+      </c>
+      <c r="L627" s="2">
+        <v>4.02</v>
+      </c>
+      <c r="M627" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="N627" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13">
+      <c r="A628" s="2">
+        <v>4066</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="E628" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F628" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G628" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H628" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="I628" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J628" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K628" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L628" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M628" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13">
+      <c r="A629" s="2">
+        <v>4067</v>
+      </c>
+      <c r="B629" s="3"/>
+      <c r="C629" s="3"/>
+      <c r="D629" s="3"/>
+      <c r="E629" s="3"/>
+      <c r="F629" s="3"/>
+      <c r="G629" s="3"/>
+      <c r="H629" s="3"/>
+      <c r="I629" s="3"/>
+      <c r="J629" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K629" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="L629" s="2">
+        <v>4.85</v>
+      </c>
+      <c r="M629" s="2">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13">
+      <c r="A630" s="2">
+        <v>4068</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E630" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F630" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G630" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H630" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I630" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J630" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K630" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="L630" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="M630" s="2">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="631" spans="1:14">
+      <c r="A631" s="2">
+        <v>4069</v>
+      </c>
+      <c r="B631" s="3"/>
+      <c r="C631" s="3"/>
+      <c r="D631" s="3"/>
+      <c r="E631" s="3"/>
+      <c r="F631" s="3"/>
+      <c r="G631" s="3"/>
+      <c r="H631" s="3"/>
+      <c r="I631" s="3"/>
+      <c r="J631" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K631" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="L631" s="2">
+        <v>4</v>
+      </c>
+      <c r="M631" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="N631" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13">
+      <c r="A632" s="2">
+        <v>4074</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E632" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F632" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="G632" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H632" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="I632" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J632" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K632" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="L632" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="M632" s="2">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="633" spans="1:14">
+      <c r="A633" s="2">
+        <v>4075</v>
+      </c>
+      <c r="B633" s="3"/>
+      <c r="C633" s="3"/>
+      <c r="D633" s="3"/>
+      <c r="E633" s="3"/>
+      <c r="F633" s="3"/>
+      <c r="G633" s="3"/>
+      <c r="H633" s="3"/>
+      <c r="I633" s="3"/>
+      <c r="J633" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K633" s="4">
+        <v>1.37</v>
+      </c>
+      <c r="L633" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="M633" s="2">
+        <v>6.05</v>
+      </c>
+      <c r="N633" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13">
+      <c r="A634" s="2">
+        <v>4076</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E634" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F634" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G634" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H634" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="I634" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J634" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K634" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="L634" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="M634" s="4">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="635" spans="1:14">
+      <c r="A635" s="2">
+        <v>4077</v>
+      </c>
+      <c r="B635" s="3"/>
+      <c r="C635" s="3"/>
+      <c r="D635" s="3"/>
+      <c r="E635" s="3"/>
+      <c r="F635" s="3"/>
+      <c r="G635" s="3"/>
+      <c r="H635" s="3"/>
+      <c r="I635" s="3"/>
+      <c r="J635" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K635" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="L635" s="4">
+        <v>3.65</v>
+      </c>
+      <c r="M635" s="2">
+        <v>5.05</v>
+      </c>
+      <c r="N635" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13">
+      <c r="A636" s="2">
+        <v>4082</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E636" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F636" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="G636" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H636" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="I636" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J636" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K636" s="4">
+        <v>2.3</v>
+      </c>
+      <c r="L636" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="M636" s="2">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="637" spans="1:14">
+      <c r="A637" s="2">
+        <v>4083</v>
+      </c>
+      <c r="B637" s="3"/>
+      <c r="C637" s="3"/>
+      <c r="D637" s="3"/>
+      <c r="E637" s="3"/>
+      <c r="F637" s="3"/>
+      <c r="G637" s="3"/>
+      <c r="H637" s="3"/>
+      <c r="I637" s="3"/>
+      <c r="J637" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K637" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="L637" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="M637" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="N637" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13">
+      <c r="A638" s="2">
+        <v>4096</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="E638" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F638" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="G638" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H638" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I638" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J638" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K638" s="4">
+        <v>2.26</v>
+      </c>
+      <c r="L638" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="M638" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="639" spans="1:14">
+      <c r="A639" s="2">
+        <v>4097</v>
+      </c>
+      <c r="B639" s="3"/>
+      <c r="C639" s="3"/>
+      <c r="D639" s="3"/>
+      <c r="E639" s="3"/>
+      <c r="F639" s="3"/>
+      <c r="G639" s="3"/>
+      <c r="H639" s="3"/>
+      <c r="I639" s="3"/>
+      <c r="J639" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K639" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="L639" s="2">
+        <v>4.45</v>
+      </c>
+      <c r="M639" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="N639" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13">
+      <c r="A640" s="2">
+        <v>4100</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E640" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F640" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G640" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H640" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I640" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J640" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K640" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="L640" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="M640" s="2">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="641" spans="1:14">
+      <c r="A641" s="2">
+        <v>4101</v>
+      </c>
+      <c r="B641" s="3"/>
+      <c r="C641" s="3"/>
+      <c r="D641" s="3"/>
+      <c r="E641" s="3"/>
+      <c r="F641" s="3"/>
+      <c r="G641" s="3"/>
+      <c r="H641" s="3"/>
+      <c r="I641" s="3"/>
+      <c r="J641" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K641" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="L641" s="4">
+        <v>4.15</v>
+      </c>
+      <c r="M641" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="N641" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13">
+      <c r="A642" s="2">
+        <v>4106</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="E642" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F642" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G642" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H642" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="I642" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J642" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K642" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L642" s="2">
+        <v>3.17</v>
+      </c>
+      <c r="M642" s="2">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="643" spans="1:14">
+      <c r="A643" s="2">
+        <v>4107</v>
+      </c>
+      <c r="B643" s="3"/>
+      <c r="C643" s="3"/>
+      <c r="D643" s="3"/>
+      <c r="E643" s="3"/>
+      <c r="F643" s="3"/>
+      <c r="G643" s="3"/>
+      <c r="H643" s="3"/>
+      <c r="I643" s="3"/>
+      <c r="J643" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K643" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="L643" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M643" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="N643" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13">
+      <c r="A644" s="2">
+        <v>4124</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="E644" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F644" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G644" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H644" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I644" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J644" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K644" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="L644" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="M644" s="4">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="645" spans="1:14">
+      <c r="A645" s="2">
+        <v>4125</v>
+      </c>
+      <c r="B645" s="3"/>
+      <c r="C645" s="3"/>
+      <c r="D645" s="3"/>
+      <c r="E645" s="3"/>
+      <c r="F645" s="3"/>
+      <c r="G645" s="3"/>
+      <c r="H645" s="3"/>
+      <c r="I645" s="3"/>
+      <c r="J645" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K645" s="2">
+        <v>4.48</v>
+      </c>
+      <c r="L645" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="M645" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="N645" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13">
+      <c r="A646" s="2">
+        <v>4126</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="E646" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F646" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G646" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H646" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I646" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J646" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K646" s="2">
+        <v>2.46</v>
+      </c>
+      <c r="L646" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="M646" s="4">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="647" spans="1:14">
+      <c r="A647" s="2">
+        <v>4127</v>
+      </c>
+      <c r="B647" s="3"/>
+      <c r="C647" s="3"/>
+      <c r="D647" s="3"/>
+      <c r="E647" s="3"/>
+      <c r="F647" s="3"/>
+      <c r="G647" s="3"/>
+      <c r="H647" s="3"/>
+      <c r="I647" s="3"/>
+      <c r="J647" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K647" s="2">
+        <v>5.45</v>
+      </c>
+      <c r="L647" s="2">
+        <v>4.35</v>
+      </c>
+      <c r="M647" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="N647" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13">
+      <c r="A648" s="2">
+        <v>4132</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E648" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="G648" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H648" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="I648" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J648" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K648" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="L648" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="M648" s="2">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="649" spans="1:14">
+      <c r="A649" s="2">
+        <v>4133</v>
+      </c>
+      <c r="B649" s="3"/>
+      <c r="C649" s="3"/>
+      <c r="D649" s="3"/>
+      <c r="E649" s="3"/>
+      <c r="F649" s="3"/>
+      <c r="G649" s="3"/>
+      <c r="H649" s="3"/>
+      <c r="I649" s="3"/>
+      <c r="J649" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K649" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L649" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="M649" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="N649" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2368">
+  <mergeCells count="2592">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -24179,6 +26246,34 @@
     <mergeCell ref="B588:B589"/>
     <mergeCell ref="B590:B591"/>
     <mergeCell ref="B592:B593"/>
+    <mergeCell ref="B594:B595"/>
+    <mergeCell ref="B596:B597"/>
+    <mergeCell ref="B598:B599"/>
+    <mergeCell ref="B600:B601"/>
+    <mergeCell ref="B602:B603"/>
+    <mergeCell ref="B604:B605"/>
+    <mergeCell ref="B606:B607"/>
+    <mergeCell ref="B608:B609"/>
+    <mergeCell ref="B610:B611"/>
+    <mergeCell ref="B612:B613"/>
+    <mergeCell ref="B614:B615"/>
+    <mergeCell ref="B616:B617"/>
+    <mergeCell ref="B618:B619"/>
+    <mergeCell ref="B620:B621"/>
+    <mergeCell ref="B622:B623"/>
+    <mergeCell ref="B624:B625"/>
+    <mergeCell ref="B626:B627"/>
+    <mergeCell ref="B628:B629"/>
+    <mergeCell ref="B630:B631"/>
+    <mergeCell ref="B632:B633"/>
+    <mergeCell ref="B634:B635"/>
+    <mergeCell ref="B636:B637"/>
+    <mergeCell ref="B638:B639"/>
+    <mergeCell ref="B640:B641"/>
+    <mergeCell ref="B642:B643"/>
+    <mergeCell ref="B644:B645"/>
+    <mergeCell ref="B646:B647"/>
+    <mergeCell ref="B648:B649"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -24475,6 +26570,34 @@
     <mergeCell ref="C588:C589"/>
     <mergeCell ref="C590:C591"/>
     <mergeCell ref="C592:C593"/>
+    <mergeCell ref="C594:C595"/>
+    <mergeCell ref="C596:C597"/>
+    <mergeCell ref="C598:C599"/>
+    <mergeCell ref="C600:C601"/>
+    <mergeCell ref="C602:C603"/>
+    <mergeCell ref="C604:C605"/>
+    <mergeCell ref="C606:C607"/>
+    <mergeCell ref="C608:C609"/>
+    <mergeCell ref="C610:C611"/>
+    <mergeCell ref="C612:C613"/>
+    <mergeCell ref="C614:C615"/>
+    <mergeCell ref="C616:C617"/>
+    <mergeCell ref="C618:C619"/>
+    <mergeCell ref="C620:C621"/>
+    <mergeCell ref="C622:C623"/>
+    <mergeCell ref="C624:C625"/>
+    <mergeCell ref="C626:C627"/>
+    <mergeCell ref="C628:C629"/>
+    <mergeCell ref="C630:C631"/>
+    <mergeCell ref="C632:C633"/>
+    <mergeCell ref="C634:C635"/>
+    <mergeCell ref="C636:C637"/>
+    <mergeCell ref="C638:C639"/>
+    <mergeCell ref="C640:C641"/>
+    <mergeCell ref="C642:C643"/>
+    <mergeCell ref="C644:C645"/>
+    <mergeCell ref="C646:C647"/>
+    <mergeCell ref="C648:C649"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -24771,6 +26894,34 @@
     <mergeCell ref="D588:D589"/>
     <mergeCell ref="D590:D591"/>
     <mergeCell ref="D592:D593"/>
+    <mergeCell ref="D594:D595"/>
+    <mergeCell ref="D596:D597"/>
+    <mergeCell ref="D598:D599"/>
+    <mergeCell ref="D600:D601"/>
+    <mergeCell ref="D602:D603"/>
+    <mergeCell ref="D604:D605"/>
+    <mergeCell ref="D606:D607"/>
+    <mergeCell ref="D608:D609"/>
+    <mergeCell ref="D610:D611"/>
+    <mergeCell ref="D612:D613"/>
+    <mergeCell ref="D614:D615"/>
+    <mergeCell ref="D616:D617"/>
+    <mergeCell ref="D618:D619"/>
+    <mergeCell ref="D620:D621"/>
+    <mergeCell ref="D622:D623"/>
+    <mergeCell ref="D624:D625"/>
+    <mergeCell ref="D626:D627"/>
+    <mergeCell ref="D628:D629"/>
+    <mergeCell ref="D630:D631"/>
+    <mergeCell ref="D632:D633"/>
+    <mergeCell ref="D634:D635"/>
+    <mergeCell ref="D636:D637"/>
+    <mergeCell ref="D638:D639"/>
+    <mergeCell ref="D640:D641"/>
+    <mergeCell ref="D642:D643"/>
+    <mergeCell ref="D644:D645"/>
+    <mergeCell ref="D646:D647"/>
+    <mergeCell ref="D648:D649"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -25067,6 +27218,34 @@
     <mergeCell ref="E588:E589"/>
     <mergeCell ref="E590:E591"/>
     <mergeCell ref="E592:E593"/>
+    <mergeCell ref="E594:E595"/>
+    <mergeCell ref="E596:E597"/>
+    <mergeCell ref="E598:E599"/>
+    <mergeCell ref="E600:E601"/>
+    <mergeCell ref="E602:E603"/>
+    <mergeCell ref="E604:E605"/>
+    <mergeCell ref="E606:E607"/>
+    <mergeCell ref="E608:E609"/>
+    <mergeCell ref="E610:E611"/>
+    <mergeCell ref="E612:E613"/>
+    <mergeCell ref="E614:E615"/>
+    <mergeCell ref="E616:E617"/>
+    <mergeCell ref="E618:E619"/>
+    <mergeCell ref="E620:E621"/>
+    <mergeCell ref="E622:E623"/>
+    <mergeCell ref="E624:E625"/>
+    <mergeCell ref="E626:E627"/>
+    <mergeCell ref="E628:E629"/>
+    <mergeCell ref="E630:E631"/>
+    <mergeCell ref="E632:E633"/>
+    <mergeCell ref="E634:E635"/>
+    <mergeCell ref="E636:E637"/>
+    <mergeCell ref="E638:E639"/>
+    <mergeCell ref="E640:E641"/>
+    <mergeCell ref="E642:E643"/>
+    <mergeCell ref="E644:E645"/>
+    <mergeCell ref="E646:E647"/>
+    <mergeCell ref="E648:E649"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -25363,6 +27542,34 @@
     <mergeCell ref="F588:F589"/>
     <mergeCell ref="F590:F591"/>
     <mergeCell ref="F592:F593"/>
+    <mergeCell ref="F594:F595"/>
+    <mergeCell ref="F596:F597"/>
+    <mergeCell ref="F598:F599"/>
+    <mergeCell ref="F600:F601"/>
+    <mergeCell ref="F602:F603"/>
+    <mergeCell ref="F604:F605"/>
+    <mergeCell ref="F606:F607"/>
+    <mergeCell ref="F608:F609"/>
+    <mergeCell ref="F610:F611"/>
+    <mergeCell ref="F612:F613"/>
+    <mergeCell ref="F614:F615"/>
+    <mergeCell ref="F616:F617"/>
+    <mergeCell ref="F618:F619"/>
+    <mergeCell ref="F620:F621"/>
+    <mergeCell ref="F622:F623"/>
+    <mergeCell ref="F624:F625"/>
+    <mergeCell ref="F626:F627"/>
+    <mergeCell ref="F628:F629"/>
+    <mergeCell ref="F630:F631"/>
+    <mergeCell ref="F632:F633"/>
+    <mergeCell ref="F634:F635"/>
+    <mergeCell ref="F636:F637"/>
+    <mergeCell ref="F638:F639"/>
+    <mergeCell ref="F640:F641"/>
+    <mergeCell ref="F642:F643"/>
+    <mergeCell ref="F644:F645"/>
+    <mergeCell ref="F646:F647"/>
+    <mergeCell ref="F648:F649"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
@@ -25659,6 +27866,34 @@
     <mergeCell ref="G588:G589"/>
     <mergeCell ref="G590:G591"/>
     <mergeCell ref="G592:G593"/>
+    <mergeCell ref="G594:G595"/>
+    <mergeCell ref="G596:G597"/>
+    <mergeCell ref="G598:G599"/>
+    <mergeCell ref="G600:G601"/>
+    <mergeCell ref="G602:G603"/>
+    <mergeCell ref="G604:G605"/>
+    <mergeCell ref="G606:G607"/>
+    <mergeCell ref="G608:G609"/>
+    <mergeCell ref="G610:G611"/>
+    <mergeCell ref="G612:G613"/>
+    <mergeCell ref="G614:G615"/>
+    <mergeCell ref="G616:G617"/>
+    <mergeCell ref="G618:G619"/>
+    <mergeCell ref="G620:G621"/>
+    <mergeCell ref="G622:G623"/>
+    <mergeCell ref="G624:G625"/>
+    <mergeCell ref="G626:G627"/>
+    <mergeCell ref="G628:G629"/>
+    <mergeCell ref="G630:G631"/>
+    <mergeCell ref="G632:G633"/>
+    <mergeCell ref="G634:G635"/>
+    <mergeCell ref="G636:G637"/>
+    <mergeCell ref="G638:G639"/>
+    <mergeCell ref="G640:G641"/>
+    <mergeCell ref="G642:G643"/>
+    <mergeCell ref="G644:G645"/>
+    <mergeCell ref="G646:G647"/>
+    <mergeCell ref="G648:G649"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
@@ -25955,6 +28190,34 @@
     <mergeCell ref="H588:H589"/>
     <mergeCell ref="H590:H591"/>
     <mergeCell ref="H592:H593"/>
+    <mergeCell ref="H594:H595"/>
+    <mergeCell ref="H596:H597"/>
+    <mergeCell ref="H598:H599"/>
+    <mergeCell ref="H600:H601"/>
+    <mergeCell ref="H602:H603"/>
+    <mergeCell ref="H604:H605"/>
+    <mergeCell ref="H606:H607"/>
+    <mergeCell ref="H608:H609"/>
+    <mergeCell ref="H610:H611"/>
+    <mergeCell ref="H612:H613"/>
+    <mergeCell ref="H614:H615"/>
+    <mergeCell ref="H616:H617"/>
+    <mergeCell ref="H618:H619"/>
+    <mergeCell ref="H620:H621"/>
+    <mergeCell ref="H622:H623"/>
+    <mergeCell ref="H624:H625"/>
+    <mergeCell ref="H626:H627"/>
+    <mergeCell ref="H628:H629"/>
+    <mergeCell ref="H630:H631"/>
+    <mergeCell ref="H632:H633"/>
+    <mergeCell ref="H634:H635"/>
+    <mergeCell ref="H636:H637"/>
+    <mergeCell ref="H638:H639"/>
+    <mergeCell ref="H640:H641"/>
+    <mergeCell ref="H642:H643"/>
+    <mergeCell ref="H644:H645"/>
+    <mergeCell ref="H646:H647"/>
+    <mergeCell ref="H648:H649"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
@@ -26251,6 +28514,34 @@
     <mergeCell ref="I588:I589"/>
     <mergeCell ref="I590:I591"/>
     <mergeCell ref="I592:I593"/>
+    <mergeCell ref="I594:I595"/>
+    <mergeCell ref="I596:I597"/>
+    <mergeCell ref="I598:I599"/>
+    <mergeCell ref="I600:I601"/>
+    <mergeCell ref="I602:I603"/>
+    <mergeCell ref="I604:I605"/>
+    <mergeCell ref="I606:I607"/>
+    <mergeCell ref="I608:I609"/>
+    <mergeCell ref="I610:I611"/>
+    <mergeCell ref="I612:I613"/>
+    <mergeCell ref="I614:I615"/>
+    <mergeCell ref="I616:I617"/>
+    <mergeCell ref="I618:I619"/>
+    <mergeCell ref="I620:I621"/>
+    <mergeCell ref="I622:I623"/>
+    <mergeCell ref="I624:I625"/>
+    <mergeCell ref="I626:I627"/>
+    <mergeCell ref="I628:I629"/>
+    <mergeCell ref="I630:I631"/>
+    <mergeCell ref="I632:I633"/>
+    <mergeCell ref="I634:I635"/>
+    <mergeCell ref="I636:I637"/>
+    <mergeCell ref="I638:I639"/>
+    <mergeCell ref="I640:I641"/>
+    <mergeCell ref="I642:I643"/>
+    <mergeCell ref="I644:I645"/>
+    <mergeCell ref="I646:I647"/>
+    <mergeCell ref="I648:I649"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
